--- a/Python/resultados/HW_C013_120.xlsx
+++ b/Python/resultados/HW_C013_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.8125</v>
+        <v>27.81570239103635</v>
       </c>
       <c r="C2" t="n">
-        <v>30.796875</v>
+        <v>30.80390501693298</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.828125</v>
+        <v>27.82998793290199</v>
       </c>
       <c r="C3" t="n">
-        <v>30.828125</v>
+        <v>30.82642585885509</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.8125</v>
+        <v>27.81040101797698</v>
       </c>
       <c r="C4" t="n">
-        <v>30.8125</v>
+        <v>30.80843604591822</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.828125</v>
+        <v>27.83059714135541</v>
       </c>
       <c r="C5" t="n">
-        <v>30.828125</v>
+        <v>30.82348619399256</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8125</v>
+        <v>27.81276892523978</v>
       </c>
       <c r="C6" t="n">
-        <v>30.8125</v>
+        <v>30.81269365560632</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.78125</v>
+        <v>27.77995967987434</v>
       </c>
       <c r="C7" t="n">
-        <v>30.8125</v>
+        <v>30.8159316451517</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8125</v>
+        <v>27.81054231798197</v>
       </c>
       <c r="C8" t="n">
-        <v>30.8125</v>
+        <v>30.81781439205926</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.796875</v>
+        <v>27.79302848503535</v>
       </c>
       <c r="C9" t="n">
-        <v>30.828125</v>
+        <v>30.8269700018248</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.78125</v>
+        <v>27.77886993060811</v>
       </c>
       <c r="C10" t="n">
-        <v>30.828125</v>
+        <v>30.82344178040631</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.796875</v>
+        <v>27.79238803733759</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8125</v>
+        <v>30.81013083384278</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.8125</v>
+        <v>27.80542458593479</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8125</v>
+        <v>30.816923542459</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.71875</v>
+        <v>19.71169903920278</v>
       </c>
       <c r="C2" t="n">
-        <v>27.1875</v>
+        <v>27.18949078542111</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.71875</v>
+        <v>19.72321208847485</v>
       </c>
       <c r="C3" t="n">
-        <v>27.140625</v>
+        <v>27.14313349217949</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.703125</v>
+        <v>19.70485216020915</v>
       </c>
       <c r="C4" t="n">
-        <v>27.1875</v>
+        <v>27.19447114028931</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.703125</v>
+        <v>19.69738454128513</v>
       </c>
       <c r="C5" t="n">
-        <v>27.21875</v>
+        <v>27.21594110718867</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.71875</v>
+        <v>19.71785702247167</v>
       </c>
       <c r="C6" t="n">
-        <v>27.1875</v>
+        <v>27.18830513438048</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.703125</v>
+        <v>19.70378262439458</v>
       </c>
       <c r="C7" t="n">
-        <v>27.1875</v>
+        <v>27.18923036513203</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.71875</v>
+        <v>19.717695462581</v>
       </c>
       <c r="C8" t="n">
-        <v>27.203125</v>
+        <v>27.20481006915502</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.703125</v>
+        <v>19.70897206965194</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1875</v>
+        <v>27.18783770036239</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.703125</v>
+        <v>19.70175579881327</v>
       </c>
       <c r="C10" t="n">
-        <v>27.15625</v>
+        <v>27.15716340365552</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.703125</v>
+        <v>19.70801303412406</v>
       </c>
       <c r="C11" t="n">
-        <v>27.1875</v>
+        <v>27.1798500604582</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.703125</v>
+        <v>19.70952238412085</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1875</v>
+        <v>27.18502332582222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.79279422790961</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.96662184382448</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.79902987844351</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.00401240077766</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.79181344603722</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.99301473913094</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.77823956324047</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.98628552826259</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.80343918904243</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.99837574781676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.78719751716943</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.97308713479629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.80702704989456</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.99628064475888</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.79418528960567</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.00637875222865</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.7941084626089</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.97217952052352</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.78041386147308</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.98003313687737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.79282484854249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22.98762694489972</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C013_120.xlsx
+++ b/Python/resultados/HW_C013_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.81570239103635</v>
+        <v>27.7608239223043</v>
       </c>
       <c r="C2" t="n">
-        <v>30.80390501693298</v>
+        <v>30.43167762435635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.82998793290199</v>
+        <v>27.76415565283329</v>
       </c>
       <c r="C3" t="n">
-        <v>30.82642585885509</v>
+        <v>30.43427447041097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.81040101797698</v>
+        <v>27.80085108117647</v>
       </c>
       <c r="C4" t="n">
-        <v>30.80843604591822</v>
+        <v>30.38770512775293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.83059714135541</v>
+        <v>27.76251901515253</v>
       </c>
       <c r="C5" t="n">
-        <v>30.82348619399256</v>
+        <v>30.4021683580043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.81276892523978</v>
+        <v>27.76072746189019</v>
       </c>
       <c r="C6" t="n">
-        <v>30.81269365560632</v>
+        <v>30.42522454420415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.77995967987434</v>
+        <v>27.77727973682701</v>
       </c>
       <c r="C7" t="n">
-        <v>30.8159316451517</v>
+        <v>30.41906045070446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.81054231798197</v>
+        <v>27.78446173692694</v>
       </c>
       <c r="C8" t="n">
-        <v>30.81781439205926</v>
+        <v>30.41462334204979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.79302848503535</v>
+        <v>27.76050118429297</v>
       </c>
       <c r="C9" t="n">
-        <v>30.8269700018248</v>
+        <v>30.41926158129405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.77886993060811</v>
+        <v>27.76686598914338</v>
       </c>
       <c r="C10" t="n">
-        <v>30.82344178040631</v>
+        <v>30.41849637698485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.79238803733759</v>
+        <v>27.77808232087939</v>
       </c>
       <c r="C11" t="n">
-        <v>30.81013083384278</v>
+        <v>30.43074601113019</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.80542458593479</v>
+        <v>27.77162681014265</v>
       </c>
       <c r="C12" t="n">
-        <v>30.816923542459</v>
+        <v>30.4183237886892</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.71169903920278</v>
+        <v>19.71096378066319</v>
       </c>
       <c r="C2" t="n">
-        <v>27.18949078542111</v>
+        <v>27.12554861644868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.72321208847485</v>
+        <v>19.70666034781575</v>
       </c>
       <c r="C3" t="n">
-        <v>27.14313349217949</v>
+        <v>27.12441247315927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.70485216020915</v>
+        <v>19.69473720740051</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19447114028931</v>
+        <v>27.10100171302534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.69738454128513</v>
+        <v>19.70634436507044</v>
       </c>
       <c r="C5" t="n">
-        <v>27.21594110718867</v>
+        <v>27.14092747501897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.71785702247167</v>
+        <v>19.71380722760305</v>
       </c>
       <c r="C6" t="n">
-        <v>27.18830513438048</v>
+        <v>27.10969116205595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.70378262439458</v>
+        <v>19.6990256308485</v>
       </c>
       <c r="C7" t="n">
-        <v>27.18923036513203</v>
+        <v>27.14155728141581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.717695462581</v>
+        <v>19.69283585213583</v>
       </c>
       <c r="C8" t="n">
-        <v>27.20481006915502</v>
+        <v>27.11998882156776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.70897206965194</v>
+        <v>19.7109287530526</v>
       </c>
       <c r="C9" t="n">
-        <v>27.18783770036239</v>
+        <v>27.14285905819212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.70175579881327</v>
+        <v>19.70808572588459</v>
       </c>
       <c r="C10" t="n">
-        <v>27.15716340365552</v>
+        <v>27.1488540439452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.70801303412406</v>
+        <v>19.69632878342746</v>
       </c>
       <c r="C11" t="n">
-        <v>27.1798500604582</v>
+        <v>27.13944556714049</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.70952238412085</v>
+        <v>19.70397176739019</v>
       </c>
       <c r="C12" t="n">
-        <v>27.18502332582222</v>
+        <v>27.12942862119696</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.79279422790961</v>
+        <v>14.71210866387949</v>
       </c>
       <c r="C2" t="n">
-        <v>22.96662184382448</v>
+        <v>22.85673989991717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.79902987844351</v>
+        <v>14.71457888402703</v>
       </c>
       <c r="C3" t="n">
-        <v>23.00401240077766</v>
+        <v>22.80292029071429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.79181344603722</v>
+        <v>14.69337827589535</v>
       </c>
       <c r="C4" t="n">
-        <v>22.99301473913094</v>
+        <v>22.78669765343427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.77823956324047</v>
+        <v>14.70796967197167</v>
       </c>
       <c r="C5" t="n">
-        <v>22.98628552826259</v>
+        <v>22.82267012730443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.80343918904243</v>
+        <v>14.70728687960158</v>
       </c>
       <c r="C6" t="n">
-        <v>22.99837574781676</v>
+        <v>22.84514864959789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.78719751716943</v>
+        <v>14.68214970443914</v>
       </c>
       <c r="C7" t="n">
-        <v>22.97308713479629</v>
+        <v>22.85584582650917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.80702704989456</v>
+        <v>14.69367101778813</v>
       </c>
       <c r="C8" t="n">
-        <v>22.99628064475888</v>
+        <v>22.81512895830863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.79418528960567</v>
+        <v>14.69523298733144</v>
       </c>
       <c r="C9" t="n">
-        <v>23.00637875222865</v>
+        <v>22.88361392675698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7941084626089</v>
+        <v>14.68916523002296</v>
       </c>
       <c r="C10" t="n">
-        <v>22.97217952052352</v>
+        <v>22.8043320559091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.78041386147308</v>
+        <v>14.69387074554603</v>
       </c>
       <c r="C11" t="n">
-        <v>22.98003313687737</v>
+        <v>22.81169227272106</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.79282484854249</v>
+        <v>14.69894120605028</v>
       </c>
       <c r="C12" t="n">
-        <v>22.98762694489972</v>
+        <v>22.8284789661173</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C013_120.xlsx
+++ b/Python/resultados/HW_C013_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>30.43167762435635</v>
       </c>
+      <c r="D2" t="n">
+        <v>30.19546385022814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>30.43427447041097</v>
       </c>
+      <c r="D3" t="n">
+        <v>30.20058837635157</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>30.38770512775293</v>
       </c>
+      <c r="D4" t="n">
+        <v>30.17224863758651</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>30.4021683580043</v>
       </c>
+      <c r="D5" t="n">
+        <v>30.17749892636014</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>30.42522454420415</v>
       </c>
+      <c r="D6" t="n">
+        <v>30.19314864708934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>30.41906045070446</v>
       </c>
+      <c r="D7" t="n">
+        <v>30.18296010851255</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>30.41462334204979</v>
       </c>
+      <c r="D8" t="n">
+        <v>30.17138189573899</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>30.41926158129405</v>
       </c>
+      <c r="D9" t="n">
+        <v>30.20743422229705</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>30.41849637698485</v>
       </c>
+      <c r="D10" t="n">
+        <v>30.19539994560932</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>30.43074601113019</v>
       </c>
+      <c r="D11" t="n">
+        <v>30.19480119818936</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>30.4183237886892</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.1890925807963</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>27.12554861644868</v>
       </c>
+      <c r="D2" t="n">
+        <v>26.2285285260489</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>27.12441247315927</v>
       </c>
+      <c r="D3" t="n">
+        <v>26.21349631121881</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>27.10100171302534</v>
       </c>
+      <c r="D4" t="n">
+        <v>26.18225333447186</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>27.14092747501897</v>
       </c>
+      <c r="D5" t="n">
+        <v>26.2167098669996</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>27.10969116205595</v>
       </c>
+      <c r="D6" t="n">
+        <v>26.20442299912017</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>27.14155728141581</v>
       </c>
+      <c r="D7" t="n">
+        <v>26.22356746897985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>27.11998882156776</v>
       </c>
+      <c r="D8" t="n">
+        <v>26.1928468316871</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>27.14285905819212</v>
       </c>
+      <c r="D9" t="n">
+        <v>26.25546953465573</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>27.1488540439452</v>
       </c>
+      <c r="D10" t="n">
+        <v>26.21807626212293</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>27.13944556714049</v>
       </c>
+      <c r="D11" t="n">
+        <v>26.23359344185387</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>27.12942862119696</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.21689645771588</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>22.85673989991717</v>
       </c>
+      <c r="D2" t="n">
+        <v>21.96833622003978</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>22.80292029071429</v>
       </c>
+      <c r="D3" t="n">
+        <v>21.9413231756773</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>22.78669765343427</v>
       </c>
+      <c r="D4" t="n">
+        <v>21.91559816037352</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>22.82267012730443</v>
       </c>
+      <c r="D5" t="n">
+        <v>21.93291185249863</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>22.84514864959789</v>
       </c>
+      <c r="D6" t="n">
+        <v>21.95897951101468</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>22.85584582650917</v>
       </c>
+      <c r="D7" t="n">
+        <v>21.97479669096314</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>22.81512895830863</v>
       </c>
+      <c r="D8" t="n">
+        <v>21.93044355836742</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>22.88361392675698</v>
       </c>
+      <c r="D9" t="n">
+        <v>21.99782697217773</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>22.8043320559091</v>
       </c>
+      <c r="D10" t="n">
+        <v>21.90533832993787</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>22.81169227272106</v>
       </c>
+      <c r="D11" t="n">
+        <v>21.9380640403334</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>22.8284789661173</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.94636185113835</v>
       </c>
     </row>
   </sheetData>
